--- a/biology/Botanique/Eustigmataceae/Eustigmataceae.xlsx
+++ b/biology/Botanique/Eustigmataceae/Eustigmataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eustigmataceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Eustigmatophyceae et de l’ordre des Eustigmatales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Eustigmatos, dérivé du grec ευ / eu, « bien, bon, normal » et στιγματ / stigmat, « marque, tâche », en référence à la couleur des cellules de cet organisme.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (17 février 2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (17 février 2022) :
 Chlorobotrys Bohlin, 1901
 Eustigmatos D.J.Hibberd, 1981
 Tetragoniella Pascher, 1930
@@ -602,9 +620,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Chlorobotrys donna son nom à la famille des Chlorobotrydaceae Pascher, 1925[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Chlorobotrys donna son nom à la famille des Chlorobotrydaceae Pascher, 1925.
 </t>
         </is>
       </c>
